--- a/Document/template/CongNoTemplate.xlsx
+++ b/Document/template/CongNoTemplate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -17,12 +17,12 @@
     <sheet name="TONG HOP CONG NO" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="94">
   <si>
     <t>Công ty TNHH In Ấn Hình Ảnh Tuyệt Vời</t>
   </si>
@@ -1001,7 +1001,7 @@
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A11" sqref="A11:N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1225,50 +1225,20 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="8">
-        <v>76</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="10">
-        <v>1</v>
-      </c>
-      <c r="L11" s="11">
-        <v>2010000</v>
-      </c>
-      <c r="M11" s="12">
-        <f>L11*0.1</f>
-        <v>201000</v>
-      </c>
-      <c r="N11" s="12">
-        <f>K11*L11-M11*K11</f>
-        <v>1809000</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
       <c r="P11" s="13"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
@@ -1303,16 +1273,16 @@
       <c r="J13" s="42"/>
       <c r="K13" s="4">
         <f>SUM(K11:K11)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="4"/>
       <c r="M13" s="4">
         <f>SUM(M11:M11)</f>
-        <v>201000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="14">
         <f>SUM(N11:N11)</f>
-        <v>1809000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -2775,17 +2745,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
     <mergeCell ref="A8:N8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="D10:M10"/>
     <mergeCell ref="A35:J35"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A4:N4"/>
-    <mergeCell ref="A5:N5"/>
-    <mergeCell ref="A6:N6"/>
   </mergeCells>
   <pageMargins left="0.56999999999999995" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
